--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cxcl14-Cxcr4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cxcl14-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cxcr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>174.111526052085</v>
+        <v>0.7703099999999999</v>
       </c>
       <c r="H2">
-        <v>174.111526052085</v>
+        <v>2.31093</v>
       </c>
       <c r="I2">
-        <v>0.9805651628281026</v>
+        <v>0.004088589491984781</v>
       </c>
       <c r="J2">
-        <v>0.9805651628281026</v>
+        <v>0.004129923058507432</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.4728802740447</v>
+        <v>21.605737</v>
       </c>
       <c r="N2">
-        <v>18.4728802740447</v>
+        <v>64.817211</v>
       </c>
       <c r="O2">
-        <v>0.04282037503870845</v>
+        <v>0.04481006619585007</v>
       </c>
       <c r="P2">
-        <v>0.04282037503870845</v>
+        <v>0.04512976179082277</v>
       </c>
       <c r="Q2">
-        <v>3216.341375091381</v>
+        <v>16.64311526847</v>
       </c>
       <c r="R2">
-        <v>3216.341375091381</v>
+        <v>149.78803741623</v>
       </c>
       <c r="S2">
-        <v>0.04198816802219157</v>
+        <v>0.000183209965783495</v>
       </c>
       <c r="T2">
-        <v>0.04198816802219157</v>
+        <v>0.0001863824438448666</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,49 +599,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>174.111526052085</v>
+        <v>0.7703099999999999</v>
       </c>
       <c r="H3">
-        <v>174.111526052085</v>
+        <v>2.31093</v>
       </c>
       <c r="I3">
-        <v>0.9805651628281026</v>
+        <v>0.004088589491984781</v>
       </c>
       <c r="J3">
-        <v>0.9805651628281026</v>
+        <v>0.004129923058507432</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>186.487118979237</v>
+        <v>0.4738613333333333</v>
       </c>
       <c r="N3">
-        <v>186.487118979237</v>
+        <v>1.421584</v>
       </c>
       <c r="O3">
-        <v>0.4322795501359428</v>
+        <v>0.0009827833095589584</v>
       </c>
       <c r="P3">
-        <v>0.4322795501359428</v>
+        <v>0.0009897949371139249</v>
       </c>
       <c r="Q3">
-        <v>32469.5568745317</v>
+        <v>0.3650201236799999</v>
       </c>
       <c r="R3">
-        <v>32469.5568745317</v>
+        <v>3.28518111312</v>
       </c>
       <c r="S3">
-        <v>0.4238782674663096</v>
+        <v>4.018197512360784E-06</v>
       </c>
       <c r="T3">
-        <v>0.4238782674663096</v>
+        <v>4.087776933980712E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>174.111526052085</v>
+        <v>0.7703099999999999</v>
       </c>
       <c r="H4">
-        <v>174.111526052085</v>
+        <v>2.31093</v>
       </c>
       <c r="I4">
-        <v>0.9805651628281026</v>
+        <v>0.004088589491984781</v>
       </c>
       <c r="J4">
-        <v>0.9805651628281026</v>
+        <v>0.004129923058507432</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>216.412317214466</v>
+        <v>229.146642</v>
       </c>
       <c r="N4">
-        <v>216.412317214466</v>
+        <v>687.439926</v>
       </c>
       <c r="O4">
-        <v>0.5016465461068224</v>
+        <v>0.4752476713280717</v>
       </c>
       <c r="P4">
-        <v>0.5016465461068224</v>
+        <v>0.4786383065121521</v>
       </c>
       <c r="Q4">
-        <v>37679.87880667858</v>
+        <v>176.51394979902</v>
       </c>
       <c r="R4">
-        <v>37679.87880667858</v>
+        <v>1588.62554819118</v>
       </c>
       <c r="S4">
-        <v>0.4918971271653915</v>
+        <v>0.001943092635082191</v>
       </c>
       <c r="T4">
-        <v>0.4918971271653915</v>
+        <v>0.001976739378749485</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -723,111 +723,111 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>174.111526052085</v>
+        <v>0.7703099999999999</v>
       </c>
       <c r="H5">
-        <v>174.111526052085</v>
+        <v>2.31093</v>
       </c>
       <c r="I5">
-        <v>0.9805651628281026</v>
+        <v>0.004088589491984781</v>
       </c>
       <c r="J5">
-        <v>0.9805651628281026</v>
+        <v>0.004129923058507432</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.0316648693078</v>
+        <v>220.6895343333333</v>
       </c>
       <c r="N5">
-        <v>10.0316648693078</v>
+        <v>662.0686029999999</v>
       </c>
       <c r="O5">
-        <v>0.02325352871852629</v>
+        <v>0.4577077209728135</v>
       </c>
       <c r="P5">
-        <v>0.02325352871852629</v>
+        <v>0.4609732180943856</v>
       </c>
       <c r="Q5">
-        <v>1746.628479238271</v>
+        <v>169.99935519231</v>
       </c>
       <c r="R5">
-        <v>1746.628479238271</v>
+        <v>1529.99419673079</v>
       </c>
       <c r="S5">
-        <v>0.02280160017420969</v>
+        <v>0.001871378978369747</v>
       </c>
       <c r="T5">
-        <v>0.02280160017420969</v>
+        <v>0.001903783922762378</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.8846205700891721</v>
+        <v>0.7703099999999999</v>
       </c>
       <c r="H6">
-        <v>0.8846205700891721</v>
+        <v>2.31093</v>
       </c>
       <c r="I6">
-        <v>0.004982025791279833</v>
+        <v>0.004088589491984781</v>
       </c>
       <c r="J6">
-        <v>0.004982025791279833</v>
+        <v>0.004129923058507432</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.4728802740447</v>
+        <v>10.2468025</v>
       </c>
       <c r="N6">
-        <v>18.4728802740447</v>
+        <v>20.493605</v>
       </c>
       <c r="O6">
-        <v>0.04282037503870845</v>
+        <v>0.02125175819370578</v>
       </c>
       <c r="P6">
-        <v>0.04282037503870845</v>
+        <v>0.01426891866552565</v>
       </c>
       <c r="Q6">
-        <v>16.34148987921445</v>
+        <v>7.893214433775</v>
       </c>
       <c r="R6">
-        <v>16.34148987921445</v>
+        <v>47.35928660265</v>
       </c>
       <c r="S6">
-        <v>0.0002133322128351207</v>
+        <v>8.688971523698691E-05</v>
       </c>
       <c r="T6">
-        <v>0.0002133322128351207</v>
+        <v>5.892953621672148E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8846205700891721</v>
+        <v>180.6151046666666</v>
       </c>
       <c r="H7">
-        <v>0.8846205700891721</v>
+        <v>541.8453139999999</v>
       </c>
       <c r="I7">
-        <v>0.004982025791279833</v>
+        <v>0.9586543327152246</v>
       </c>
       <c r="J7">
-        <v>0.004982025791279833</v>
+        <v>0.9683458419046875</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>186.487118979237</v>
+        <v>21.605737</v>
       </c>
       <c r="N7">
-        <v>186.487118979237</v>
+        <v>64.817211</v>
       </c>
       <c r="O7">
-        <v>0.4322795501359428</v>
+        <v>0.04481006619585007</v>
       </c>
       <c r="P7">
-        <v>0.4322795501359428</v>
+        <v>0.04512976179082277</v>
       </c>
       <c r="Q7">
-        <v>164.9703415056999</v>
+        <v>3902.322449655472</v>
       </c>
       <c r="R7">
-        <v>164.9703415056999</v>
+        <v>35120.90204689925</v>
       </c>
       <c r="S7">
-        <v>0.00215362786782011</v>
+        <v>0.04295736410790769</v>
       </c>
       <c r="T7">
-        <v>0.00215362786782011</v>
+        <v>0.04370121717629228</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8846205700891721</v>
+        <v>180.6151046666666</v>
       </c>
       <c r="H8">
-        <v>0.8846205700891721</v>
+        <v>541.8453139999999</v>
       </c>
       <c r="I8">
-        <v>0.004982025791279833</v>
+        <v>0.9586543327152246</v>
       </c>
       <c r="J8">
-        <v>0.004982025791279833</v>
+        <v>0.9683458419046875</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>216.412317214466</v>
+        <v>0.4738613333333333</v>
       </c>
       <c r="N8">
-        <v>216.412317214466</v>
+        <v>1.421584</v>
       </c>
       <c r="O8">
-        <v>0.5016465461068224</v>
+        <v>0.0009827833095589584</v>
       </c>
       <c r="P8">
-        <v>0.5016465461068224</v>
+        <v>0.0009897949371139249</v>
       </c>
       <c r="Q8">
-        <v>191.4427874285796</v>
+        <v>85.58651431748621</v>
       </c>
       <c r="R8">
-        <v>191.4427874285796</v>
+        <v>770.2786288573759</v>
       </c>
       <c r="S8">
-        <v>0.002499216030810637</v>
+        <v>0.0009421494778289033</v>
       </c>
       <c r="T8">
-        <v>0.002499216030810637</v>
+        <v>0.0009584638116925809</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8846205700891721</v>
+        <v>180.6151046666666</v>
       </c>
       <c r="H9">
-        <v>0.8846205700891721</v>
+        <v>541.8453139999999</v>
       </c>
       <c r="I9">
-        <v>0.004982025791279833</v>
+        <v>0.9586543327152246</v>
       </c>
       <c r="J9">
-        <v>0.004982025791279833</v>
+        <v>0.9683458419046875</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.0316648693078</v>
+        <v>229.146642</v>
       </c>
       <c r="N9">
-        <v>10.0316648693078</v>
+        <v>687.439926</v>
       </c>
       <c r="O9">
-        <v>0.02325352871852629</v>
+        <v>0.4752476713280717</v>
       </c>
       <c r="P9">
-        <v>0.02325352871852629</v>
+        <v>0.4786383065121521</v>
       </c>
       <c r="Q9">
-        <v>8.874217095630586</v>
+        <v>41387.34472884519</v>
       </c>
       <c r="R9">
-        <v>8.874217095630586</v>
+        <v>372486.1025596067</v>
       </c>
       <c r="S9">
-        <v>0.0001158496798139642</v>
+        <v>0.455598239231477</v>
       </c>
       <c r="T9">
-        <v>0.0001158496798139642</v>
+        <v>0.4634874138873438</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.340121340287508</v>
+        <v>180.6151046666666</v>
       </c>
       <c r="H10">
-        <v>0.340121340287508</v>
+        <v>541.8453139999999</v>
       </c>
       <c r="I10">
-        <v>0.001915502924950321</v>
+        <v>0.9586543327152246</v>
       </c>
       <c r="J10">
-        <v>0.001915502924950321</v>
+        <v>0.9683458419046875</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.4728802740447</v>
+        <v>220.6895343333333</v>
       </c>
       <c r="N10">
-        <v>18.4728802740447</v>
+        <v>662.0686029999999</v>
       </c>
       <c r="O10">
-        <v>0.04282037503870845</v>
+        <v>0.4577077209728135</v>
       </c>
       <c r="P10">
-        <v>0.04282037503870845</v>
+        <v>0.4609732180943856</v>
       </c>
       <c r="Q10">
-        <v>6.283020797778752</v>
+        <v>39859.86334245292</v>
       </c>
       <c r="R10">
-        <v>6.283020797778752</v>
+        <v>358738.7700820763</v>
       </c>
       <c r="S10">
-        <v>8.202255363411575E-05</v>
+        <v>0.4387834898277987</v>
       </c>
       <c r="T10">
-        <v>8.202255363411575E-05</v>
+        <v>0.4463814989711209</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.340121340287508</v>
+        <v>180.6151046666666</v>
       </c>
       <c r="H11">
-        <v>0.340121340287508</v>
+        <v>541.8453139999999</v>
       </c>
       <c r="I11">
-        <v>0.001915502924950321</v>
+        <v>0.9586543327152246</v>
       </c>
       <c r="J11">
-        <v>0.001915502924950321</v>
+        <v>0.9683458419046875</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.487118979237</v>
+        <v>10.2468025</v>
       </c>
       <c r="N11">
-        <v>186.487118979237</v>
+        <v>20.493605</v>
       </c>
       <c r="O11">
-        <v>0.4322795501359428</v>
+        <v>0.02125175819370578</v>
       </c>
       <c r="P11">
-        <v>0.4322795501359428</v>
+        <v>0.01426891866552565</v>
       </c>
       <c r="Q11">
-        <v>63.42824885357407</v>
+        <v>1850.727306036162</v>
       </c>
       <c r="R11">
-        <v>63.42824885357407</v>
+        <v>11104.36383621697</v>
       </c>
       <c r="S11">
-        <v>0.0008280327426816072</v>
+        <v>0.02037309007021232</v>
       </c>
       <c r="T11">
-        <v>0.0008280327426816072</v>
+        <v>0.01381724805823795</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.340121340287508</v>
+        <v>0.8976066666666668</v>
       </c>
       <c r="H12">
-        <v>0.340121340287508</v>
+        <v>2.69282</v>
       </c>
       <c r="I12">
-        <v>0.001915502924950321</v>
+        <v>0.004764244505807817</v>
       </c>
       <c r="J12">
-        <v>0.001915502924950321</v>
+        <v>0.004812408601909181</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>216.412317214466</v>
+        <v>21.605737</v>
       </c>
       <c r="N12">
-        <v>216.412317214466</v>
+        <v>64.817211</v>
       </c>
       <c r="O12">
-        <v>0.5016465461068224</v>
+        <v>0.04481006619585007</v>
       </c>
       <c r="P12">
-        <v>0.5016465461068224</v>
+        <v>0.04512976179082277</v>
       </c>
       <c r="Q12">
-        <v>73.60644738570952</v>
+        <v>19.39345356944667</v>
       </c>
       <c r="R12">
-        <v>73.60644738570952</v>
+        <v>174.54108212502</v>
       </c>
       <c r="S12">
-        <v>0.0009609054263588441</v>
+        <v>0.0002134861116784633</v>
       </c>
       <c r="T12">
-        <v>0.0009609054263588441</v>
+        <v>0.0002171828538442678</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,247 +1207,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.340121340287508</v>
+        <v>0.8976066666666668</v>
       </c>
       <c r="H13">
-        <v>0.340121340287508</v>
+        <v>2.69282</v>
       </c>
       <c r="I13">
-        <v>0.001915502924950321</v>
+        <v>0.004764244505807817</v>
       </c>
       <c r="J13">
-        <v>0.001915502924950321</v>
+        <v>0.004812408601909181</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>10.0316648693078</v>
+        <v>0.4738613333333333</v>
       </c>
       <c r="N13">
-        <v>10.0316648693078</v>
+        <v>1.421584</v>
       </c>
       <c r="O13">
-        <v>0.02325352871852629</v>
+        <v>0.0009827833095589584</v>
       </c>
       <c r="P13">
-        <v>0.02325352871852629</v>
+        <v>0.0009897949371139249</v>
       </c>
       <c r="Q13">
-        <v>3.411983300664078</v>
+        <v>0.4253410918755556</v>
       </c>
       <c r="R13">
-        <v>3.411983300664078</v>
+        <v>3.82806982688</v>
       </c>
       <c r="S13">
-        <v>4.454220227575339E-05</v>
+        <v>4.682219982965891E-06</v>
       </c>
       <c r="T13">
-        <v>4.454220227575339E-05</v>
+        <v>4.763297669493209E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.22615486512507</v>
+        <v>0.8976066666666668</v>
       </c>
       <c r="H14">
-        <v>2.22615486512507</v>
+        <v>2.69282</v>
       </c>
       <c r="I14">
-        <v>0.01253730845566727</v>
+        <v>0.004764244505807817</v>
       </c>
       <c r="J14">
-        <v>0.01253730845566727</v>
+        <v>0.004812408601909181</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.4728802740447</v>
+        <v>229.146642</v>
       </c>
       <c r="N14">
-        <v>18.4728802740447</v>
+        <v>687.439926</v>
       </c>
       <c r="O14">
-        <v>0.04282037503870845</v>
+        <v>0.4752476713280717</v>
       </c>
       <c r="P14">
-        <v>0.04282037503870845</v>
+        <v>0.4786383065121521</v>
       </c>
       <c r="Q14">
-        <v>41.12349229493755</v>
+        <v>205.68355350348</v>
       </c>
       <c r="R14">
-        <v>41.12349229493755</v>
+        <v>1851.15198153132</v>
       </c>
       <c r="S14">
-        <v>0.0005368522500476432</v>
+        <v>0.002264196107022725</v>
       </c>
       <c r="T14">
-        <v>0.0005368522500476432</v>
+        <v>0.002303403103462324</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.22615486512507</v>
+        <v>0.8976066666666668</v>
       </c>
       <c r="H15">
-        <v>2.22615486512507</v>
+        <v>2.69282</v>
       </c>
       <c r="I15">
-        <v>0.01253730845566727</v>
+        <v>0.004764244505807817</v>
       </c>
       <c r="J15">
-        <v>0.01253730845566727</v>
+        <v>0.004812408601909181</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>186.487118979237</v>
+        <v>220.6895343333333</v>
       </c>
       <c r="N15">
-        <v>186.487118979237</v>
+        <v>662.0686029999999</v>
       </c>
       <c r="O15">
-        <v>0.4322795501359428</v>
+        <v>0.4577077209728135</v>
       </c>
       <c r="P15">
-        <v>0.4322795501359428</v>
+        <v>0.4609732180943856</v>
       </c>
       <c r="Q15">
-        <v>415.1492071987863</v>
+        <v>198.0923972811622</v>
       </c>
       <c r="R15">
-        <v>415.1492071987863</v>
+        <v>1782.83157553046</v>
       </c>
       <c r="S15">
-        <v>0.005419622059131398</v>
+        <v>0.002180631494910544</v>
       </c>
       <c r="T15">
-        <v>0.005419622059131398</v>
+        <v>0.002218391480007178</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.22615486512507</v>
+        <v>0.8976066666666668</v>
       </c>
       <c r="H16">
-        <v>2.22615486512507</v>
+        <v>2.69282</v>
       </c>
       <c r="I16">
-        <v>0.01253730845566727</v>
+        <v>0.004764244505807817</v>
       </c>
       <c r="J16">
-        <v>0.01253730845566727</v>
+        <v>0.004812408601909181</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>216.412317214466</v>
+        <v>10.2468025</v>
       </c>
       <c r="N16">
-        <v>216.412317214466</v>
+        <v>20.493605</v>
       </c>
       <c r="O16">
-        <v>0.5016465461068224</v>
+        <v>0.02125175819370578</v>
       </c>
       <c r="P16">
-        <v>0.5016465461068224</v>
+        <v>0.01426891866552565</v>
       </c>
       <c r="Q16">
-        <v>481.7673328399734</v>
+        <v>9.197598236016669</v>
       </c>
       <c r="R16">
-        <v>481.7673328399734</v>
+        <v>55.18558941610001</v>
       </c>
       <c r="S16">
-        <v>0.006289297484261344</v>
+        <v>0.000101248572213119</v>
       </c>
       <c r="T16">
-        <v>0.006289297484261344</v>
+        <v>6.866786692591811E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4649626666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.394888</v>
+      </c>
+      <c r="I17">
+        <v>0.002467891463305105</v>
+      </c>
+      <c r="J17">
+        <v>0.002492840594581105</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.605737</v>
+      </c>
+      <c r="N17">
+        <v>64.817211</v>
+      </c>
+      <c r="O17">
+        <v>0.04481006619585007</v>
+      </c>
+      <c r="P17">
+        <v>0.04512976179082277</v>
+      </c>
+      <c r="Q17">
+        <v>10.04586109081867</v>
+      </c>
+      <c r="R17">
+        <v>90.412749817368</v>
+      </c>
+      <c r="S17">
+        <v>0.0001105863798348751</v>
+      </c>
+      <c r="T17">
+        <v>0.0001125013022159383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4649626666666666</v>
+      </c>
+      <c r="H18">
+        <v>1.394888</v>
+      </c>
+      <c r="I18">
+        <v>0.002467891463305105</v>
+      </c>
+      <c r="J18">
+        <v>0.002492840594581105</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.4738613333333333</v>
+      </c>
+      <c r="N18">
+        <v>1.421584</v>
+      </c>
+      <c r="O18">
+        <v>0.0009827833095589584</v>
+      </c>
+      <c r="P18">
+        <v>0.0009897949371139249</v>
+      </c>
+      <c r="Q18">
+        <v>0.2203278291768889</v>
+      </c>
+      <c r="R18">
+        <v>1.982950462592</v>
+      </c>
+      <c r="S18">
+        <v>2.425402539939292E-06</v>
+      </c>
+      <c r="T18">
+        <v>2.467400999548444E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4649626666666666</v>
+      </c>
+      <c r="H19">
+        <v>1.394888</v>
+      </c>
+      <c r="I19">
+        <v>0.002467891463305105</v>
+      </c>
+      <c r="J19">
+        <v>0.002492840594581105</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>229.146642</v>
+      </c>
+      <c r="N19">
+        <v>687.439926</v>
+      </c>
+      <c r="O19">
+        <v>0.4752476713280717</v>
+      </c>
+      <c r="P19">
+        <v>0.4786383065121521</v>
+      </c>
+      <c r="Q19">
+        <v>106.544633722032</v>
+      </c>
+      <c r="R19">
+        <v>958.9017034982879</v>
+      </c>
+      <c r="S19">
+        <v>0.001172859671026179</v>
+      </c>
+      <c r="T19">
+        <v>0.001193169000595047</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4649626666666666</v>
+      </c>
+      <c r="H20">
+        <v>1.394888</v>
+      </c>
+      <c r="I20">
+        <v>0.002467891463305105</v>
+      </c>
+      <c r="J20">
+        <v>0.002492840594581105</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>220.6895343333333</v>
+      </c>
+      <c r="N20">
+        <v>662.0686029999999</v>
+      </c>
+      <c r="O20">
+        <v>0.4577077209728135</v>
+      </c>
+      <c r="P20">
+        <v>0.4609732180943856</v>
+      </c>
+      <c r="Q20">
+        <v>102.6123943890515</v>
+      </c>
+      <c r="R20">
+        <v>923.5115495014638</v>
+      </c>
+      <c r="S20">
+        <v>0.001129572977277642</v>
+      </c>
+      <c r="T20">
+        <v>0.001149132751080374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4649626666666666</v>
+      </c>
+      <c r="H21">
+        <v>1.394888</v>
+      </c>
+      <c r="I21">
+        <v>0.002467891463305105</v>
+      </c>
+      <c r="J21">
+        <v>0.002492840594581105</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10.2468025</v>
+      </c>
+      <c r="N21">
+        <v>20.493605</v>
+      </c>
+      <c r="O21">
+        <v>0.02125175819370578</v>
+      </c>
+      <c r="P21">
+        <v>0.01426891866552565</v>
+      </c>
+      <c r="Q21">
+        <v>4.764380615206667</v>
+      </c>
+      <c r="R21">
+        <v>28.58628369124</v>
+      </c>
+      <c r="S21">
+        <v>5.244703262647081E-05</v>
+      </c>
+      <c r="T21">
+        <v>3.557013969019839E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.656844</v>
+      </c>
+      <c r="H22">
+        <v>11.313688</v>
+      </c>
+      <c r="I22">
+        <v>0.03002494182367768</v>
+      </c>
+      <c r="J22">
+        <v>0.02021898584031486</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>21.605737</v>
+      </c>
+      <c r="N22">
+        <v>64.817211</v>
+      </c>
+      <c r="O22">
+        <v>0.04481006619585007</v>
+      </c>
+      <c r="P22">
+        <v>0.04512976179082277</v>
+      </c>
+      <c r="Q22">
+        <v>122.220283714028</v>
+      </c>
+      <c r="R22">
+        <v>733.3217022841679</v>
+      </c>
+      <c r="S22">
+        <v>0.001345419630645544</v>
+      </c>
+      <c r="T22">
+        <v>0.0009124780146254282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.656844</v>
+      </c>
+      <c r="H23">
+        <v>11.313688</v>
+      </c>
+      <c r="I23">
+        <v>0.03002494182367768</v>
+      </c>
+      <c r="J23">
+        <v>0.02021898584031486</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.4738613333333333</v>
+      </c>
+      <c r="N23">
+        <v>1.421584</v>
+      </c>
+      <c r="O23">
+        <v>0.0009827833095589584</v>
+      </c>
+      <c r="P23">
+        <v>0.0009897949371139249</v>
+      </c>
+      <c r="Q23">
+        <v>2.680559640298666</v>
+      </c>
+      <c r="R23">
+        <v>16.083357841792</v>
+      </c>
+      <c r="S23">
+        <v>2.950801169478914E-05</v>
+      </c>
+      <c r="T23">
+        <v>2.001264981832179E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.656844</v>
+      </c>
+      <c r="H24">
+        <v>11.313688</v>
+      </c>
+      <c r="I24">
+        <v>0.03002494182367768</v>
+      </c>
+      <c r="J24">
+        <v>0.02021898584031486</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>229.146642</v>
+      </c>
+      <c r="N24">
+        <v>687.439926</v>
+      </c>
+      <c r="O24">
+        <v>0.4752476713280717</v>
+      </c>
+      <c r="P24">
+        <v>0.4786383065121521</v>
+      </c>
+      <c r="Q24">
+        <v>1296.246806917848</v>
+      </c>
+      <c r="R24">
+        <v>7777.480841507087</v>
+      </c>
+      <c r="S24">
+        <v>0.01426928368346365</v>
+      </c>
+      <c r="T24">
+        <v>0.009677581142001486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2.22615486512507</v>
-      </c>
-      <c r="H17">
-        <v>2.22615486512507</v>
-      </c>
-      <c r="I17">
-        <v>0.01253730845566727</v>
-      </c>
-      <c r="J17">
-        <v>0.01253730845566727</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>10.0316648693078</v>
-      </c>
-      <c r="N17">
-        <v>10.0316648693078</v>
-      </c>
-      <c r="O17">
-        <v>0.02325352871852629</v>
-      </c>
-      <c r="P17">
-        <v>0.02325352871852629</v>
-      </c>
-      <c r="Q17">
-        <v>22.33203955411381</v>
-      </c>
-      <c r="R17">
-        <v>22.33203955411381</v>
-      </c>
-      <c r="S17">
-        <v>0.0002915366622268813</v>
-      </c>
-      <c r="T17">
-        <v>0.0002915366622268813</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.656844</v>
+      </c>
+      <c r="H25">
+        <v>11.313688</v>
+      </c>
+      <c r="I25">
+        <v>0.03002494182367768</v>
+      </c>
+      <c r="J25">
+        <v>0.02021898584031486</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>220.6895343333333</v>
+      </c>
+      <c r="N25">
+        <v>662.0686029999999</v>
+      </c>
+      <c r="O25">
+        <v>0.4577077209728135</v>
+      </c>
+      <c r="P25">
+        <v>0.4609732180943856</v>
+      </c>
+      <c r="Q25">
+        <v>1248.40626815631</v>
+      </c>
+      <c r="R25">
+        <v>7490.437608937863</v>
+      </c>
+      <c r="S25">
+        <v>0.01374264769445682</v>
+      </c>
+      <c r="T25">
+        <v>0.009320410969414756</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.656844</v>
+      </c>
+      <c r="H26">
+        <v>11.313688</v>
+      </c>
+      <c r="I26">
+        <v>0.03002494182367768</v>
+      </c>
+      <c r="J26">
+        <v>0.02021898584031486</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.2468025</v>
+      </c>
+      <c r="N26">
+        <v>20.493605</v>
+      </c>
+      <c r="O26">
+        <v>0.02125175819370578</v>
+      </c>
+      <c r="P26">
+        <v>0.01426891866552565</v>
+      </c>
+      <c r="Q26">
+        <v>57.96456324131</v>
+      </c>
+      <c r="R26">
+        <v>231.85825296524</v>
+      </c>
+      <c r="S26">
+        <v>0.0006380828034168814</v>
+      </c>
+      <c r="T26">
+        <v>0.0002885030644548676</v>
       </c>
     </row>
   </sheetData>
